--- a/AAII_Financials/Quarterly/USLG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/USLG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
   <si>
     <t>USLG</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,67 +665,70 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42551</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42460</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42277</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42185</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42094</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E8" s="3">
         <v>1000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1600</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
       <c r="G8" s="3">
         <v>0</v>
       </c>
@@ -741,66 +744,75 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>200</v>
+      </c>
+      <c r="E9" s="3">
         <v>500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>600</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="3">
         <v>100</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E10" s="3">
         <v>500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1000</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="3">
         <v>-100</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,20 +824,21 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="3">
         <v>100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>200</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G12" s="3" t="s">
         <v>5</v>
       </c>
@@ -841,8 +854,11 @@
       <c r="K12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,37 +886,43 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>-200</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -928,8 +950,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,20 +963,21 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>500</v>
+      </c>
+      <c r="E17" s="3">
         <v>1100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1700</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
       <c r="G17" s="3">
         <v>0</v>
       </c>
@@ -967,19 +993,22 @@
       <c r="K17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-100</v>
+        <v>1000</v>
       </c>
       <c r="E18" s="3">
         <v>-100</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G18" s="3">
         <v>0</v>
@@ -996,8 +1025,11 @@
       <c r="K18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,8 +1041,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1038,13 +1071,16 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>5</v>
+      <c r="D21" s="3">
+        <v>1000</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>5</v>
@@ -1067,8 +1103,11 @@
       <c r="K21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1078,8 +1117,8 @@
       <c r="E22" s="3">
         <v>100</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>5</v>
+      <c r="F22" s="3">
+        <v>100</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>5</v>
@@ -1096,20 +1135,23 @@
       <c r="K22" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-300</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
         <v>0</v>
       </c>
@@ -1125,8 +1167,11 @@
       <c r="K23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1154,8 +1199,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,20 +1231,23 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-300</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
         <v>0</v>
       </c>
@@ -1212,20 +1263,23 @@
       <c r="K26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-300</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
         <v>0</v>
       </c>
@@ -1241,8 +1295,11 @@
       <c r="K27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1327,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1281,26 +1341,29 @@
       <c r="E29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
+      <c r="H29" s="3">
+        <v>0</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="J29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1391,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,8 +1423,11 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1386,20 +1455,23 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-300</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
         <v>0</v>
       </c>
@@ -1415,8 +1487,11 @@
       <c r="K33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,20 +1519,23 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-300</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
         <v>0</v>
       </c>
@@ -1473,42 +1551,48 @@
       <c r="K35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42551</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42460</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42277</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42185</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42094</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1604,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,22 +1618,23 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
         <v>100</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>5</v>
+      <c r="E41" s="3">
+        <v>100</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
+      <c r="G41" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
@@ -1562,8 +1648,11 @@
       <c r="K41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,17 +1680,20 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>600</v>
+      </c>
+      <c r="E43" s="3">
         <v>100</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F43" s="3" t="s">
         <v>5</v>
       </c>
@@ -1620,17 +1712,20 @@
       <c r="K43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>200</v>
+      </c>
+      <c r="E44" s="3">
         <v>100</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F44" s="3" t="s">
         <v>5</v>
       </c>
@@ -1649,19 +1744,22 @@
       <c r="K44" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
         <v>200</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
+      <c r="F45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -1678,19 +1776,22 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>900</v>
+      </c>
+      <c r="E46" s="3">
         <v>600</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F46" s="3">
-        <v>0</v>
+      <c r="F46" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G46" s="3">
         <v>0</v>
@@ -1699,16 +1800,19 @@
         <v>0</v>
       </c>
       <c r="I46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J46" s="3">
         <v>100</v>
       </c>
       <c r="K46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1736,17 +1840,20 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E48" s="3">
         <v>1100</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F48" s="3" t="s">
         <v>5</v>
       </c>
@@ -1765,8 +1872,11 @@
       <c r="K48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1794,8 +1904,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1936,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,8 +1968,11 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1881,8 +2000,11 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,19 +2032,22 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E54" s="3">
         <v>1600</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F54" s="3">
-        <v>0</v>
+      <c r="F54" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G54" s="3">
         <v>0</v>
@@ -1931,16 +2056,19 @@
         <v>0</v>
       </c>
       <c r="I54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J54" s="3">
         <v>100</v>
       </c>
       <c r="K54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="L54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2080,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,22 +2094,23 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>400</v>
+      </c>
+      <c r="E57" s="3">
         <v>300</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G57" s="3">
-        <v>100</v>
+      <c r="G57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H57" s="3">
         <v>100</v>
@@ -1989,22 +2119,25 @@
         <v>100</v>
       </c>
       <c r="J57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E58" s="3">
         <v>3200</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F58" s="3" t="s">
         <v>5</v>
       </c>
@@ -2023,25 +2156,28 @@
       <c r="K58" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
         <v>500</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F59" s="3">
+      <c r="E59" s="3">
+        <v>500</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="3">
         <v>100</v>
       </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>5</v>
+      <c r="H59" s="3">
+        <v>0</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>5</v>
@@ -2052,19 +2188,22 @@
       <c r="K59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E60" s="3">
         <v>4000</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F60" s="3">
-        <v>100</v>
+      <c r="F60" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G60" s="3">
         <v>100</v>
@@ -2076,22 +2215,25 @@
         <v>100</v>
       </c>
       <c r="J60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>400</v>
+      </c>
+      <c r="E61" s="3">
         <v>900</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -2110,8 +2252,11 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2139,8 +2284,11 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2316,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2348,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,19 +2380,22 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E66" s="3">
         <v>4900</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F66" s="3">
-        <v>100</v>
+      <c r="F66" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G66" s="3">
         <v>100</v>
@@ -2250,13 +2407,16 @@
         <v>100</v>
       </c>
       <c r="J66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2428,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2458,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2490,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2522,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,19 +2554,22 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-19300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-20200</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-100</v>
+      <c r="F72" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G72" s="3">
         <v>-100</v>
@@ -2405,7 +2578,7 @@
         <v>-100</v>
       </c>
       <c r="I72" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J72" s="3">
         <v>0</v>
@@ -2413,8 +2586,11 @@
       <c r="K72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2618,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2650,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,23 +2682,26 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E76" s="3">
         <v>-3300</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F76" s="3">
+      <c r="F76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G76" s="3">
         <v>-100</v>
       </c>
-      <c r="G76" s="3">
-        <v>0</v>
-      </c>
       <c r="H76" s="3">
         <v>0</v>
       </c>
@@ -2529,8 +2714,11 @@
       <c r="K76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,54 +2746,60 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42551</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42460</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42277</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42185</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42094</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-300</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
         <v>0</v>
       </c>
@@ -2621,8 +2815,11 @@
       <c r="K81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,37 +2831,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
         <v>0</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+      <c r="E83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2893,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2925,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2957,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2989,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,19 +3021,22 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
+      <c r="F89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G89" s="3">
         <v>0</v>
@@ -2837,8 +3053,11 @@
       <c r="K89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,37 +3069,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+        <v>-400</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3131,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,37 +3163,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+        <v>-400</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3211,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3241,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3273,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3305,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,37 +3337,43 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
-      </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
+        <v>-400</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,19 +3401,22 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
         <v>0</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G102" s="3">
         <v>0</v>
@@ -3180,6 +3431,9 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/USLG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/USLG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="92">
   <si>
     <t>USLG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,73 +665,77 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42551</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42460</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42277</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42185</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42094</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>900</v>
+      </c>
+      <c r="E8" s="3">
         <v>1500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1600</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
       <c r="H8" s="3">
         <v>0</v>
       </c>
@@ -747,72 +751,81 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>400</v>
+      </c>
+      <c r="E9" s="3">
         <v>200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>600</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="3">
         <v>100</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>500</v>
+      </c>
+      <c r="E10" s="3">
         <v>1300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1000</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="3">
         <v>-100</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -825,23 +838,24 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="3">
+      <c r="D12" s="3">
         <v>100</v>
       </c>
+      <c r="E12" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="F12" s="3">
+        <v>100</v>
+      </c>
+      <c r="G12" s="3">
         <v>200</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H12" s="3" t="s">
         <v>5</v>
       </c>
@@ -857,8 +871,11 @@
       <c r="L12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -889,17 +906,20 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>-200</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>5</v>
       </c>
@@ -915,14 +935,17 @@
       <c r="J14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -953,8 +976,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -964,23 +990,24 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E17" s="3">
         <v>500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1700</v>
       </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
       <c r="H17" s="3">
         <v>0</v>
       </c>
@@ -996,22 +1023,25 @@
       <c r="L17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E18" s="3">
         <v>1000</v>
-      </c>
-      <c r="E18" s="3">
-        <v>-100</v>
       </c>
       <c r="F18" s="3">
         <v>-100</v>
       </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H18" s="3">
         <v>0</v>
@@ -1028,8 +1058,11 @@
       <c r="L18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1042,13 +1075,14 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1074,17 +1108,20 @@
       <c r="L20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
         <v>1000</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F21" s="3" t="s">
         <v>5</v>
       </c>
@@ -1106,8 +1143,11 @@
       <c r="L21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1120,8 +1160,8 @@
       <c r="F22" s="3">
         <v>100</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>5</v>
+      <c r="G22" s="3">
+        <v>100</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>5</v>
@@ -1138,23 +1178,26 @@
       <c r="L22" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E23" s="3">
         <v>900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
         <v>0</v>
       </c>
@@ -1170,8 +1213,11 @@
       <c r="L23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1202,8 +1248,11 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1234,23 +1283,26 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E26" s="3">
         <v>900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-300</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
         <v>0</v>
       </c>
@@ -1266,23 +1318,26 @@
       <c r="L26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E27" s="3">
         <v>900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
         <v>0</v>
       </c>
@@ -1298,8 +1353,11 @@
       <c r="L27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1330,8 +1388,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1344,26 +1405,29 @@
       <c r="F29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
+      <c r="I29" s="3">
+        <v>0</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1394,8 +1458,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1426,13 +1493,16 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1458,23 +1528,26 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E33" s="3">
         <v>900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
         <v>0</v>
       </c>
@@ -1490,8 +1563,11 @@
       <c r="L33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1522,23 +1598,26 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E35" s="3">
         <v>900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
         <v>0</v>
       </c>
@@ -1554,45 +1633,51 @@
       <c r="L35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42551</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42460</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42277</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42185</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42094</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1605,8 +1690,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1619,8 +1705,9 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1630,14 +1717,14 @@
       <c r="E41" s="3">
         <v>100</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>5</v>
+      <c r="F41" s="3">
+        <v>100</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
+      <c r="H41" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I41" s="3">
         <v>0</v>
@@ -1651,8 +1738,11 @@
       <c r="L41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1683,20 +1773,23 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>200</v>
+      </c>
+      <c r="E43" s="3">
         <v>600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>100</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>5</v>
       </c>
@@ -1715,8 +1808,11 @@
       <c r="L43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1724,11 +1820,11 @@
         <v>200</v>
       </c>
       <c r="E44" s="3">
+        <v>200</v>
+      </c>
+      <c r="F44" s="3">
         <v>100</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G44" s="3" t="s">
         <v>5</v>
       </c>
@@ -1747,22 +1843,25 @@
       <c r="L44" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
         <v>200</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
+      <c r="G45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -1779,22 +1878,25 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>600</v>
+      </c>
+      <c r="E46" s="3">
         <v>900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>600</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G46" s="3">
-        <v>0</v>
+      <c r="G46" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H46" s="3">
         <v>0</v>
@@ -1803,16 +1905,19 @@
         <v>0</v>
       </c>
       <c r="J46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K46" s="3">
         <v>100</v>
       </c>
       <c r="L46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1843,20 +1948,23 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E48" s="3">
         <v>1400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1100</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>5</v>
       </c>
@@ -1875,8 +1983,11 @@
       <c r="L48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1907,8 +2018,11 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1939,8 +2053,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1971,8 +2088,11 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2003,8 +2123,11 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2035,22 +2158,25 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E54" s="3">
         <v>2300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1600</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G54" s="3">
-        <v>0</v>
+      <c r="G54" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H54" s="3">
         <v>0</v>
@@ -2059,16 +2185,19 @@
         <v>0</v>
       </c>
       <c r="J54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K54" s="3">
         <v>100</v>
       </c>
       <c r="L54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="M54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2081,8 +2210,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2095,25 +2225,26 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>300</v>
+      </c>
+      <c r="E57" s="3">
         <v>400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>300</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H57" s="3">
-        <v>100</v>
+      <c r="H57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I57" s="3">
         <v>100</v>
@@ -2122,25 +2253,28 @@
         <v>100</v>
       </c>
       <c r="K57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E58" s="3">
         <v>2900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3200</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>5</v>
       </c>
@@ -2159,28 +2293,31 @@
       <c r="L58" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E59" s="3">
         <v>500</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G59" s="3">
+      <c r="F59" s="3">
+        <v>500</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H59" s="3">
         <v>100</v>
       </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>5</v>
+      <c r="I59" s="3">
+        <v>0</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>5</v>
@@ -2191,22 +2328,25 @@
       <c r="L59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E60" s="3">
         <v>3800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4000</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G60" s="3">
-        <v>100</v>
+      <c r="G60" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H60" s="3">
         <v>100</v>
@@ -2218,25 +2358,28 @@
         <v>100</v>
       </c>
       <c r="K60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>500</v>
+      </c>
+      <c r="E61" s="3">
         <v>400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>900</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2255,8 +2398,11 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2287,8 +2433,11 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2319,8 +2468,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2351,8 +2503,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2383,22 +2538,25 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E66" s="3">
         <v>4200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4900</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G66" s="3">
-        <v>100</v>
+      <c r="G66" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H66" s="3">
         <v>100</v>
@@ -2410,13 +2568,16 @@
         <v>100</v>
       </c>
       <c r="K66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2429,8 +2590,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2461,8 +2623,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2493,8 +2658,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2525,8 +2693,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2557,22 +2728,25 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-19300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-20200</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-100</v>
+      <c r="G72" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H72" s="3">
         <v>-100</v>
@@ -2581,7 +2755,7 @@
         <v>-100</v>
       </c>
       <c r="J72" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K72" s="3">
         <v>0</v>
@@ -2589,8 +2763,11 @@
       <c r="L72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2621,8 +2798,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2653,8 +2833,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2685,8 +2868,11 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -2694,17 +2880,17 @@
         <v>-1900</v>
       </c>
       <c r="E76" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F76" s="3">
         <v>-3300</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G76" s="3">
+      <c r="G76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H76" s="3">
         <v>-100</v>
       </c>
-      <c r="H76" s="3">
-        <v>0</v>
-      </c>
       <c r="I76" s="3">
         <v>0</v>
       </c>
@@ -2717,8 +2903,11 @@
       <c r="L76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2749,60 +2938,66 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42551</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42460</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42277</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42185</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42094</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E81" s="3">
         <v>900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
         <v>0</v>
       </c>
@@ -2818,8 +3013,11 @@
       <c r="L81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2832,16 +3030,17 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
         <v>0</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>5</v>
+      <c r="E83" s="3">
+        <v>0</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>5</v>
@@ -2858,14 +3057,17 @@
       <c r="J83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2896,8 +3098,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2928,8 +3133,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2960,8 +3168,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2992,8 +3203,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3024,22 +3238,25 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>300</v>
+      </c>
+      <c r="E89" s="3">
         <v>800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0</v>
+      <c r="G89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H89" s="3">
         <v>0</v>
@@ -3056,8 +3273,11 @@
       <c r="L89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3070,17 +3290,18 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-400</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F91" s="3" t="s">
         <v>5</v>
       </c>
@@ -3096,14 +3317,17 @@
       <c r="J91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3134,8 +3358,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3166,17 +3393,20 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-400</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F94" s="3" t="s">
         <v>5</v>
       </c>
@@ -3192,14 +3422,17 @@
       <c r="J94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3212,8 +3445,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3244,8 +3478,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3276,8 +3513,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3308,8 +3548,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3340,17 +3583,20 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-400</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F100" s="3" t="s">
         <v>5</v>
       </c>
@@ -3366,14 +3612,17 @@
       <c r="J100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
+      <c r="K100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3404,8 +3653,11 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3415,11 +3667,11 @@
       <c r="E102" s="3">
         <v>0</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H102" s="3">
         <v>0</v>
@@ -3434,6 +3686,9 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/USLG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/USLG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="92">
   <si>
     <t>USLG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,77 +665,85 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>42551</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>42460</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>42277</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>42185</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42094</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
-        <v>900</v>
+      <c r="D8" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
         <v>1500</v>
       </c>
-      <c r="F8" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1600</v>
-      </c>
       <c r="H8" s="3">
         <v>0</v>
       </c>
@@ -754,78 +762,96 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3">
-        <v>400</v>
+      <c r="D9" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
         <v>200</v>
       </c>
-      <c r="F9" s="3">
-        <v>500</v>
-      </c>
-      <c r="G9" s="3">
-        <v>600</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>5</v>
+      <c r="H9" s="3">
+        <v>0</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="3">
         <v>100</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
-        <v>500</v>
+      <c r="D10" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
         <v>1300</v>
       </c>
-      <c r="F10" s="3">
-        <v>500</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>5</v>
+      <c r="H10" s="3">
+        <v>0</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="3">
         <v>-100</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,29 +865,31 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
         <v>100</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="3">
-        <v>100</v>
-      </c>
-      <c r="G12" s="3">
-        <v>200</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J12" s="3" t="s">
         <v>5</v>
       </c>
@@ -874,8 +902,14 @@
       <c r="M12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,28 +943,34 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-200</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>5</v>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>5</v>
@@ -938,14 +978,20 @@
       <c r="K14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -979,8 +1025,14 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -991,28 +1043,30 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="E17" s="3">
+        <v>600</v>
+      </c>
+      <c r="F17" s="3">
+        <v>300</v>
+      </c>
+      <c r="G17" s="3">
         <v>500</v>
       </c>
-      <c r="F17" s="3">
-        <v>1100</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1700</v>
-      </c>
       <c r="H17" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I17" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="J17" s="3">
         <v>0</v>
@@ -1026,28 +1080,34 @@
       <c r="M17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>-100</v>
+      <c r="D18" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G18" s="3">
         <v>1000</v>
       </c>
-      <c r="F18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-100</v>
-      </c>
       <c r="H18" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="I18" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="J18" s="3">
         <v>0</v>
@@ -1061,8 +1121,14 @@
       <c r="M18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1076,20 +1142,22 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="3">
+        <v>200</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1111,23 +1179,29 @@
       <c r="M20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>0</v>
+      <c r="D21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G21" s="3">
         <v>1000</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>5</v>
       </c>
@@ -1146,13 +1220,19 @@
       <c r="M21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E22" s="3">
         <v>100</v>
@@ -1163,11 +1243,11 @@
       <c r="G22" s="3">
         <v>100</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>5</v>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>100</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>5</v>
@@ -1181,8 +1261,14 @@
       <c r="M22" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1190,19 +1276,19 @@
         <v>-100</v>
       </c>
       <c r="E23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G23" s="3">
         <v>900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="J23" s="3">
         <v>0</v>
@@ -1216,8 +1302,14 @@
       <c r="M23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1251,8 +1343,14 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1286,8 +1384,14 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1295,19 +1399,19 @@
         <v>-100</v>
       </c>
       <c r="E26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G26" s="3">
         <v>900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="J26" s="3">
         <v>0</v>
@@ -1321,8 +1425,14 @@
       <c r="M26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1330,19 +1440,19 @@
         <v>-100</v>
       </c>
       <c r="E27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G27" s="3">
         <v>900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="J27" s="3">
         <v>0</v>
@@ -1356,8 +1466,14 @@
       <c r="M27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1391,43 +1507,55 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F29" s="3">
+        <v>100</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H29" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1461,8 +1589,14 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1496,20 +1630,26 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -1531,8 +1671,14 @@
       <c r="M32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1540,20 +1686,20 @@
         <v>-100</v>
       </c>
       <c r="E33" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G33" s="3">
         <v>900</v>
       </c>
-      <c r="F33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I33" s="3">
         <v>-300</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
         <v>0</v>
       </c>
@@ -1566,8 +1712,14 @@
       <c r="M33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1601,8 +1753,14 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1610,20 +1768,20 @@
         <v>-100</v>
       </c>
       <c r="E35" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G35" s="3">
         <v>900</v>
       </c>
-      <c r="F35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I35" s="3">
         <v>-300</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
         <v>0</v>
       </c>
@@ -1636,48 +1794,60 @@
       <c r="M35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>42551</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>42460</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>42277</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>42185</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42094</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1691,8 +1861,10 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1706,8 +1878,10 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1720,17 +1894,17 @@
       <c r="F41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3">
-        <v>0</v>
+      <c r="G41" s="3">
+        <v>100</v>
+      </c>
+      <c r="H41" s="3">
+        <v>100</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
@@ -1741,31 +1915,37 @@
       <c r="M41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
+        <v>3100</v>
       </c>
       <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>3900</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -1776,26 +1956,32 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
         <v>200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>100</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>5</v>
       </c>
@@ -1811,26 +1997,32 @@
       <c r="M43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
         <v>200</v>
       </c>
-      <c r="E44" s="3">
-        <v>200</v>
-      </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
         <v>100</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I44" s="3" t="s">
         <v>5</v>
       </c>
@@ -1846,28 +2038,34 @@
       <c r="M44" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>500</v>
+      </c>
+      <c r="E45" s="3">
+        <v>500</v>
+      </c>
+      <c r="F45" s="3">
         <v>100</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
+        <v>900</v>
+      </c>
+      <c r="H45" s="3">
         <v>200</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
+      <c r="I45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
@@ -1881,43 +2079,55 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>600</v>
+        <v>3700</v>
       </c>
       <c r="E46" s="3">
-        <v>900</v>
+        <v>4500</v>
       </c>
       <c r="F46" s="3">
         <v>600</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>5</v>
+      <c r="G46" s="3">
+        <v>1600</v>
       </c>
       <c r="H46" s="3">
-        <v>0</v>
-      </c>
-      <c r="I46" s="3">
-        <v>0</v>
+        <v>600</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J46" s="3">
         <v>0</v>
       </c>
       <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
         <v>100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>100</v>
       </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1951,26 +2161,32 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>800</v>
+      </c>
+      <c r="F48" s="3">
         <v>1500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1100</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>5</v>
       </c>
@@ -1986,8 +2202,14 @@
       <c r="M48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2021,8 +2243,14 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2056,8 +2284,14 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2091,8 +2325,14 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2126,8 +2366,14 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2161,43 +2407,55 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F54" s="3">
         <v>2100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1600</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H54" s="3">
-        <v>0</v>
-      </c>
-      <c r="I54" s="3">
-        <v>0</v>
+      <c r="I54" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J54" s="3">
         <v>0</v>
       </c>
       <c r="K54" s="3">
+        <v>0</v>
+      </c>
+      <c r="L54" s="3">
+        <v>0</v>
+      </c>
+      <c r="M54" s="3">
         <v>100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>100</v>
       </c>
-      <c r="M54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2211,8 +2469,10 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2226,61 +2486,69 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E57" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F57" s="3">
         <v>300</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I57" s="3">
-        <v>100</v>
-      </c>
-      <c r="J57" s="3">
-        <v>100</v>
+      <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
+        <v>300</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K57" s="3">
         <v>100</v>
       </c>
       <c r="L57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E58" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F58" s="3">
         <v>2500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>2900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>3200</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>5</v>
       </c>
@@ -2296,34 +2564,40 @@
       <c r="M58" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F59" s="3">
         <v>600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H59" s="3">
         <v>500</v>
       </c>
-      <c r="F59" s="3">
-        <v>500</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J59" s="3">
         <v>100</v>
       </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>5</v>
+      <c r="K59" s="3">
+        <v>0</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>5</v>
@@ -2331,28 +2605,34 @@
       <c r="M59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F60" s="3">
         <v>3500</v>
       </c>
-      <c r="E60" s="3">
-        <v>3800</v>
-      </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
+        <v>4200</v>
+      </c>
+      <c r="H60" s="3">
         <v>4000</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H60" s="3">
-        <v>100</v>
-      </c>
-      <c r="I60" s="3">
-        <v>100</v>
+      <c r="I60" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J60" s="3">
         <v>100</v>
@@ -2361,31 +2641,37 @@
         <v>100</v>
       </c>
       <c r="L60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M60" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>300</v>
+      </c>
+      <c r="E61" s="3">
+        <v>100</v>
+      </c>
+      <c r="F61" s="3">
         <v>500</v>
       </c>
-      <c r="E61" s="3">
-        <v>400</v>
-      </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>900</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2401,8 +2687,14 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2436,8 +2728,14 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2471,8 +2769,14 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2506,8 +2810,14 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2541,28 +2851,34 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F66" s="3">
         <v>4000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>4200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>4900</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H66" s="3">
-        <v>100</v>
-      </c>
-      <c r="I66" s="3">
-        <v>100</v>
+      <c r="I66" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J66" s="3">
         <v>100</v>
@@ -2571,13 +2887,19 @@
         <v>100</v>
       </c>
       <c r="L66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="N66" s="3">
+        <v>0</v>
+      </c>
+      <c r="O66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2591,8 +2913,10 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2626,8 +2950,14 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2661,8 +2991,14 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2696,8 +3032,14 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2731,43 +3073,55 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-19500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-19300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-20200</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-100</v>
+      <c r="I72" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J72" s="3">
         <v>-100</v>
       </c>
       <c r="K72" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L72" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3">
+        <v>0</v>
+      </c>
+      <c r="O72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2801,8 +3155,14 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2836,8 +3196,14 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2871,32 +3237,38 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F76" s="3">
         <v>-1900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-1900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-3300</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J76" s="3">
         <v>-100</v>
       </c>
-      <c r="I76" s="3">
-        <v>0</v>
-      </c>
-      <c r="J76" s="3">
-        <v>0</v>
-      </c>
       <c r="K76" s="3">
         <v>0</v>
       </c>
@@ -2906,8 +3278,14 @@
       <c r="M76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3">
+        <v>0</v>
+      </c>
+      <c r="O76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2941,48 +3319,60 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>42551</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>42460</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>42277</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>42185</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42094</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -2990,20 +3380,20 @@
         <v>-100</v>
       </c>
       <c r="E81" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G81" s="3">
         <v>900</v>
       </c>
-      <c r="F81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I81" s="3">
         <v>-300</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
         <v>0</v>
       </c>
@@ -3016,8 +3406,14 @@
       <c r="M81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3031,8 +3427,10 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3042,11 +3440,11 @@
       <c r="E83" s="3">
         <v>0</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>5</v>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>5</v>
@@ -3060,14 +3458,20 @@
       <c r="K83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3101,8 +3505,14 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3136,8 +3546,14 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3171,8 +3587,14 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3206,8 +3628,14 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3241,28 +3669,34 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F89" s="3">
         <v>300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>800</v>
       </c>
-      <c r="F89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
+      <c r="H89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J89" s="3">
         <v>0</v>
@@ -3276,8 +3710,14 @@
       <c r="M89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3291,22 +3731,24 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
-        <v>-400</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>5</v>
+      <c r="G91" s="3">
+        <v>-500</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>5</v>
@@ -3320,14 +3762,20 @@
       <c r="K91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3361,8 +3809,14 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3396,22 +3850,28 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>900</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
-        <v>-400</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>5</v>
+      <c r="G94" s="3">
+        <v>-500</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>5</v>
@@ -3425,14 +3885,20 @@
       <c r="K94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3446,8 +3912,10 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3481,8 +3949,14 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3516,8 +3990,14 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3551,8 +4031,14 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3586,22 +4072,28 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E100" s="3">
         <v>-400</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>5</v>
+      <c r="F100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G100" s="3">
+        <v>-400</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>5</v>
@@ -3615,14 +4107,20 @@
       <c r="K100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3656,8 +4154,14 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3670,14 +4174,14 @@
       <c r="F102" s="3">
         <v>0</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J102" s="3">
         <v>0</v>
@@ -3689,6 +4193,12 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/USLG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/USLG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="92">
   <si>
     <t>USLG</t>
   </si>
@@ -1903,8 +1903,8 @@
       <c r="I41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>5</v>
+      <c r="J41" s="3">
+        <v>0</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
@@ -2064,8 +2064,8 @@
       <c r="H45" s="3">
         <v>200</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>5</v>
+      <c r="I45" s="3">
+        <v>0</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
@@ -2105,8 +2105,8 @@
       <c r="H46" s="3">
         <v>600</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>5</v>
+      <c r="I46" s="3">
+        <v>0</v>
       </c>
       <c r="J46" s="3">
         <v>0</v>
@@ -2433,8 +2433,8 @@
       <c r="H54" s="3">
         <v>1600</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>5</v>
+      <c r="I54" s="3">
+        <v>0</v>
       </c>
       <c r="J54" s="3">
         <v>0</v>
@@ -2511,8 +2511,8 @@
       <c r="I57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>5</v>
+      <c r="J57" s="3">
+        <v>100</v>
       </c>
       <c r="K57" s="3">
         <v>100</v>
@@ -2590,11 +2590,11 @@
       <c r="H59" s="3">
         <v>500</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>5</v>
+      <c r="I59" s="3">
+        <v>100</v>
       </c>
       <c r="J59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
@@ -2631,8 +2631,8 @@
       <c r="H60" s="3">
         <v>4000</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>5</v>
+      <c r="I60" s="3">
+        <v>100</v>
       </c>
       <c r="J60" s="3">
         <v>100</v>
@@ -2877,8 +2877,8 @@
       <c r="H66" s="3">
         <v>4900</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>5</v>
+      <c r="I66" s="3">
+        <v>100</v>
       </c>
       <c r="J66" s="3">
         <v>100</v>
@@ -3099,8 +3099,8 @@
       <c r="H72" s="3">
         <v>-20200</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>5</v>
+      <c r="I72" s="3">
+        <v>-100</v>
       </c>
       <c r="J72" s="3">
         <v>-100</v>
@@ -3263,11 +3263,11 @@
       <c r="H76" s="3">
         <v>-3300</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>5</v>
+      <c r="I76" s="3">
+        <v>-100</v>
       </c>
       <c r="J76" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K76" s="3">
         <v>0</v>

--- a/AAII_Financials/Quarterly/USLG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/USLG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="92">
   <si>
     <t>USLG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,70 +665,81 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>42551</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>42460</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>42369</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>42277</v>
       </c>
-      <c r="N7" s="2">
+      <c r="Q7" s="2">
         <v>42185</v>
       </c>
-      <c r="O7" s="2">
+      <c r="R7" s="2">
         <v>42094</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -736,13 +747,13 @@
         <v>5</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
       </c>
       <c r="G8" s="3">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
@@ -768,22 +779,31 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>5</v>
+      <c r="D9" s="3">
+        <v>0</v>
       </c>
       <c r="E9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
       </c>
-      <c r="G9" s="3">
-        <v>200</v>
+      <c r="G9" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
@@ -791,26 +811,35 @@
       <c r="I9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L9" s="3">
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="3">
         <v>100</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -823,8 +852,8 @@
       <c r="F10" s="3">
         <v>0</v>
       </c>
-      <c r="G10" s="3">
-        <v>1300</v>
+      <c r="G10" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H10" s="3">
         <v>0</v>
@@ -832,26 +861,35 @@
       <c r="I10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L10" s="3">
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3">
         <v>-100</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,38 +905,41 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>5</v>
+      <c r="D12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
       </c>
       <c r="H12" s="3">
         <v>0</v>
       </c>
       <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
         <v>100</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>5</v>
       </c>
@@ -908,8 +949,17 @@
       <c r="O12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,49 +999,67 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-100</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-200</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>5</v>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1031,8 +1099,17 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,38 +1122,41 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E17" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="F17" s="3">
         <v>300</v>
       </c>
       <c r="G17" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="H17" s="3">
+        <v>600</v>
+      </c>
+      <c r="I17" s="3">
+        <v>300</v>
+      </c>
+      <c r="J17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
+        <v>200</v>
+      </c>
+      <c r="L17" s="3">
         <v>400</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
       <c r="M17" s="3">
         <v>0</v>
       </c>
@@ -1086,8 +1166,17 @@
       <c r="O17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1095,29 +1184,29 @@
         <v>5</v>
       </c>
       <c r="E18" s="3">
-        <v>-600</v>
+        <v>-200</v>
       </c>
       <c r="F18" s="3">
         <v>-300</v>
       </c>
       <c r="G18" s="3">
-        <v>1000</v>
+        <v>-200</v>
       </c>
       <c r="H18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L18" s="3">
         <v>-400</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
         <v>0</v>
       </c>
@@ -1127,8 +1216,17 @@
       <c r="O18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,8 +1242,11 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1153,17 +1254,17 @@
         <v>5</v>
       </c>
       <c r="E20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F20" s="3">
+        <v>300</v>
+      </c>
+      <c r="G20" s="3">
+        <v>100</v>
+      </c>
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
-        <v>100</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1185,8 +1286,17 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1194,22 +1304,22 @@
         <v>5</v>
       </c>
       <c r="E21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H21" s="3">
         <v>-400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="I21" s="3">
         <v>-200</v>
       </c>
-      <c r="G21" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>5</v>
+      <c r="J21" s="3">
+        <v>-100</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
@@ -1226,8 +1336,17 @@
       <c r="O21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1235,29 +1354,29 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="G22" s="3">
-        <v>100</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>100</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M22" s="3" t="s">
         <v>5</v>
       </c>
@@ -1267,38 +1386,47 @@
       <c r="O22" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H23" s="3">
         <v>-500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="I23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
-        <v>900</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L23" s="3">
         <v>-500</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
         <v>0</v>
       </c>
@@ -1308,8 +1436,17 @@
       <c r="O23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1349,8 +1486,17 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,38 +1536,47 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H26" s="3">
         <v>-500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="I26" s="3">
         <v>-300</v>
       </c>
-      <c r="G26" s="3">
-        <v>900</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L26" s="3">
         <v>-500</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
         <v>0</v>
       </c>
@@ -1431,38 +1586,47 @@
       <c r="O26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H27" s="3">
         <v>-500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
-        <v>900</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L27" s="3">
         <v>-500</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
         <v>0</v>
       </c>
@@ -1472,8 +1636,17 @@
       <c r="O27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1686,17 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1522,40 +1704,49 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>3800</v>
       </c>
-      <c r="F29" s="3">
+      <c r="I29" s="3">
+        <v>300</v>
+      </c>
+      <c r="J29" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K29" s="3">
         <v>100</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29" s="3">
-        <v>100</v>
-      </c>
-      <c r="I29" s="3">
+      <c r="L29" s="3">
         <v>200</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1786,17 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,8 +1836,17 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1645,17 +1854,17 @@
         <v>5</v>
       </c>
       <c r="E32" s="3">
+        <v>100</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -1677,38 +1886,47 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="E33" s="3">
-        <v>3300</v>
+        <v>-400</v>
       </c>
       <c r="F33" s="3">
         <v>-100</v>
       </c>
       <c r="G33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H33" s="3">
+        <v>3300</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="L33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
         <v>0</v>
       </c>
@@ -1718,8 +1936,17 @@
       <c r="O33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,38 +1986,47 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="E35" s="3">
-        <v>3300</v>
+        <v>-400</v>
       </c>
       <c r="F35" s="3">
         <v>-100</v>
       </c>
       <c r="G35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H35" s="3">
+        <v>3300</v>
+      </c>
+      <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="L35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
         <v>0</v>
       </c>
@@ -1800,54 +2036,72 @@
       <c r="O35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>42551</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>42460</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>42369</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>42277</v>
       </c>
-      <c r="N38" s="2">
+      <c r="Q38" s="2">
         <v>42185</v>
       </c>
-      <c r="O38" s="2">
+      <c r="R38" s="2">
         <v>42094</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +2117,11 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,8 +2137,11 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1889,10 +2149,10 @@
         <v>100</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="G41" s="3">
         <v>100</v>
@@ -1900,17 +2160,17 @@
       <c r="H41" s="3">
         <v>100</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>5</v>
+      <c r="I41" s="3">
+        <v>100</v>
       </c>
       <c r="J41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K41" s="3">
-        <v>0</v>
-      </c>
-      <c r="L41" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M41" s="3">
         <v>0</v>
@@ -1921,40 +2181,49 @@
       <c r="O41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>400</v>
+      </c>
+      <c r="E42" s="3">
+        <v>800</v>
+      </c>
+      <c r="F42" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G42" s="3">
         <v>3100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="H42" s="3">
         <v>3900</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
-      <c r="L42" s="3">
-        <v>0</v>
-      </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
@@ -1962,35 +2231,44 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
+      <c r="D43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
         <v>200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="J43" s="3">
         <v>600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="K43" s="3">
         <v>100</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>5</v>
       </c>
@@ -2003,35 +2281,44 @@
       <c r="O43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
+      <c r="D44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
         <v>200</v>
       </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
+        <v>0</v>
+      </c>
+      <c r="K44" s="3">
         <v>100</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>5</v>
       </c>
@@ -2044,35 +2331,44 @@
       <c r="O44" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>200</v>
+      </c>
+      <c r="F45" s="3">
+        <v>200</v>
+      </c>
+      <c r="G45" s="3">
         <v>500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="H45" s="3">
         <v>500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="J45" s="3">
         <v>900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
       <c r="L45" s="3">
         <v>0</v>
       </c>
@@ -2085,49 +2381,67 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F46" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G46" s="3">
         <v>3700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="H46" s="3">
         <v>4500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="I46" s="3">
         <v>600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="J46" s="3">
         <v>1600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="K46" s="3">
         <v>600</v>
       </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
       <c r="L46" s="3">
         <v>0</v>
       </c>
       <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
         <v>100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="Q46" s="3">
         <v>100</v>
       </c>
-      <c r="O46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2167,35 +2481,44 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>900</v>
+      </c>
+      <c r="E48" s="3">
+        <v>900</v>
+      </c>
+      <c r="F48" s="3">
+        <v>900</v>
+      </c>
+      <c r="G48" s="3">
         <v>800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="H48" s="3">
         <v>800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="I48" s="3">
         <v>1500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="J48" s="3">
         <v>1400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="K48" s="3">
         <v>1100</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>5</v>
       </c>
@@ -2208,8 +2531,17 @@
       <c r="O48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2249,8 +2581,17 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2631,17 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,8 +2681,17 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2372,8 +2731,17 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,49 +2781,67 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F54" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G54" s="3">
         <v>4500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="H54" s="3">
         <v>5300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="I54" s="3">
         <v>2100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="J54" s="3">
         <v>2300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="K54" s="3">
         <v>1600</v>
       </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
-      <c r="J54" s="3">
-        <v>0</v>
-      </c>
-      <c r="K54" s="3">
-        <v>0</v>
-      </c>
       <c r="L54" s="3">
         <v>0</v>
       </c>
       <c r="M54" s="3">
+        <v>0</v>
+      </c>
+      <c r="N54" s="3">
+        <v>0</v>
+      </c>
+      <c r="O54" s="3">
+        <v>0</v>
+      </c>
+      <c r="P54" s="3">
         <v>100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="Q54" s="3">
         <v>100</v>
       </c>
-      <c r="O54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2857,11 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,8 +2877,11 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2500,64 +2892,73 @@
         <v>0</v>
       </c>
       <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
         <v>300</v>
       </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
+        <v>0</v>
+      </c>
+      <c r="K57" s="3">
         <v>300</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J57" s="3">
-        <v>100</v>
-      </c>
-      <c r="K57" s="3">
-        <v>100</v>
-      </c>
-      <c r="L57" s="3">
-        <v>100</v>
+      <c r="L57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M57" s="3">
         <v>100</v>
       </c>
       <c r="N57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="P57" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>100</v>
+      </c>
+      <c r="E58" s="3">
+        <v>200</v>
+      </c>
+      <c r="F58" s="3">
+        <v>500</v>
+      </c>
+      <c r="G58" s="3">
         <v>1600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="H58" s="3">
         <v>2000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="I58" s="3">
         <v>2500</v>
       </c>
-      <c r="G58" s="3">
-        <v>2900</v>
-      </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K58" s="3">
         <v>3200</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>5</v>
       </c>
@@ -2570,75 +2971,93 @@
       <c r="O58" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="E59" s="3">
-        <v>1400</v>
+        <v>500</v>
       </c>
       <c r="F59" s="3">
         <v>600</v>
       </c>
       <c r="G59" s="3">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="H59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I59" s="3">
+        <v>600</v>
+      </c>
+      <c r="J59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K59" s="3">
         <v>500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="L59" s="3">
         <v>100</v>
       </c>
-      <c r="J59" s="3">
-        <v>0</v>
-      </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>5</v>
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3">
+        <v>0</v>
       </c>
       <c r="O59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>800</v>
+      </c>
+      <c r="F60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G60" s="3">
         <v>2600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="H60" s="3">
         <v>3400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="I60" s="3">
         <v>3500</v>
       </c>
-      <c r="G60" s="3">
-        <v>4200</v>
-      </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
+        <v>3800</v>
+      </c>
+      <c r="K60" s="3">
         <v>4000</v>
-      </c>
-      <c r="I60" s="3">
-        <v>100</v>
-      </c>
-      <c r="J60" s="3">
-        <v>100</v>
-      </c>
-      <c r="K60" s="3">
-        <v>100</v>
       </c>
       <c r="L60" s="3">
         <v>100</v>
@@ -2647,13 +3066,22 @@
         <v>100</v>
       </c>
       <c r="N60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O60" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="P60" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2661,26 +3089,26 @@
         <v>300</v>
       </c>
       <c r="E61" s="3">
+        <v>300</v>
+      </c>
+      <c r="F61" s="3">
+        <v>300</v>
+      </c>
+      <c r="G61" s="3">
+        <v>300</v>
+      </c>
+      <c r="H61" s="3">
         <v>100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="I61" s="3">
         <v>500</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
+        <v>400</v>
+      </c>
+      <c r="K61" s="3">
         <v>900</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2693,8 +3121,17 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2734,8 +3171,17 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +3221,17 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +3271,17 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,34 +3321,43 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G66" s="3">
         <v>2800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="H66" s="3">
         <v>3500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="I66" s="3">
         <v>4000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="J66" s="3">
         <v>4200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="K66" s="3">
         <v>4900</v>
-      </c>
-      <c r="I66" s="3">
-        <v>100</v>
-      </c>
-      <c r="J66" s="3">
-        <v>100</v>
-      </c>
-      <c r="K66" s="3">
-        <v>100</v>
       </c>
       <c r="L66" s="3">
         <v>100</v>
@@ -2893,13 +3366,22 @@
         <v>100</v>
       </c>
       <c r="N66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="P66" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>0</v>
+      </c>
+      <c r="R66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3397,11 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3441,17 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3491,17 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3541,17 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,49 +3591,67 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="G72" s="3">
         <v>-16200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="H72" s="3">
         <v>-16000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="I72" s="3">
         <v>-19500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="J72" s="3">
         <v>-19300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="K72" s="3">
         <v>-20200</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-100</v>
       </c>
       <c r="L72" s="3">
         <v>-100</v>
       </c>
       <c r="M72" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N72" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O72" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="P72" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="3">
+        <v>0</v>
+      </c>
+      <c r="R72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3691,17 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3741,17 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,38 +3791,47 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F76" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G76" s="3">
         <v>1600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="H76" s="3">
         <v>1800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="I76" s="3">
         <v>-1900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="J76" s="3">
         <v>-1900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="K76" s="3">
         <v>-3300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>-100</v>
       </c>
-      <c r="J76" s="3">
-        <v>0</v>
-      </c>
-      <c r="K76" s="3">
-        <v>0</v>
-      </c>
-      <c r="L76" s="3">
-        <v>0</v>
-      </c>
       <c r="M76" s="3">
         <v>0</v>
       </c>
@@ -3284,8 +3841,17 @@
       <c r="O76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>0</v>
+      </c>
+      <c r="R76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,84 +3891,102 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>42551</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>42460</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>42369</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>42277</v>
       </c>
-      <c r="N80" s="2">
+      <c r="Q80" s="2">
         <v>42185</v>
       </c>
-      <c r="O80" s="2">
+      <c r="R80" s="2">
         <v>42094</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="E81" s="3">
-        <v>3300</v>
+        <v>-400</v>
       </c>
       <c r="F81" s="3">
         <v>-100</v>
       </c>
       <c r="G81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H81" s="3">
+        <v>3300</v>
+      </c>
+      <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="L81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
         <v>0</v>
       </c>
@@ -3412,8 +3996,17 @@
       <c r="O81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,8 +4022,11 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3446,14 +4042,14 @@
       <c r="G83" s="3">
         <v>0</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>5</v>
@@ -3464,14 +4060,23 @@
       <c r="M83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +4116,17 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +4166,17 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +4216,17 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +4266,17 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,8 +4316,17 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3684,28 +4334,28 @@
         <v>-500</v>
       </c>
       <c r="E89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H89" s="3">
         <v>3800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="I89" s="3">
         <v>300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="J89" s="3">
         <v>800</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3">
-        <v>0</v>
+      <c r="K89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M89" s="3">
         <v>0</v>
@@ -3716,8 +4366,17 @@
       <c r="O89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,32 +4392,35 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E91" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F91" s="3">
         <v>-100</v>
       </c>
       <c r="G91" s="3">
+        <v>100</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J91" s="3">
         <v>-500</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>5</v>
       </c>
@@ -3768,14 +4430,23 @@
       <c r="M91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4486,17 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,32 +4536,41 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>300</v>
+      </c>
+      <c r="E94" s="3">
+        <v>700</v>
+      </c>
+      <c r="F94" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G94" s="3">
         <v>900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="H94" s="3">
         <v>-3500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="J94" s="3">
         <v>-500</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>5</v>
       </c>
@@ -3891,14 +4580,23 @@
       <c r="M94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4612,11 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4656,17 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4706,17 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4756,17 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,32 +4806,41 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H100" s="3">
         <v>-400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="I100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="J100" s="3">
         <v>-400</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>5</v>
       </c>
@@ -4113,14 +4850,23 @@
       <c r="M100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4160,37 +4906,46 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>5</v>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
       </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3">
-        <v>0</v>
+      <c r="K102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M102" s="3">
         <v>0</v>
@@ -4199,6 +4954,15 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/USLG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/USLG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="92">
   <si>
     <t>USLG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,92 +665,96 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42551</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42460</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42369</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42277</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42185</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42094</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>5</v>
+      <c r="D8" s="3">
+        <v>500</v>
       </c>
       <c r="E8" s="3">
         <v>100</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -788,37 +792,40 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E9" s="3">
+        <v>200</v>
+      </c>
+      <c r="F9" s="3">
         <v>100</v>
       </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0</v>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K9" s="3">
         <v>0</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>5</v>
+      <c r="L9" s="3">
+        <v>0</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>5</v>
@@ -826,49 +833,52 @@
       <c r="N9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O9" s="3">
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="3">
         <v>100</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>5</v>
+      <c r="D10" s="3">
+        <v>0</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J10" s="3">
-        <v>0</v>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K10" s="3">
         <v>0</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>5</v>
+      <c r="L10" s="3">
+        <v>0</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>5</v>
@@ -876,20 +886,23 @@
       <c r="N10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="3">
         <v>-100</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,22 +921,23 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>5</v>
+      <c r="D12" s="3">
+        <v>100</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="3">
-        <v>0</v>
+      <c r="G12" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H12" s="3">
         <v>0</v>
@@ -931,18 +945,18 @@
       <c r="I12" s="3">
         <v>0</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K12" s="3">
-        <v>0</v>
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
         <v>100</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N12" s="3" t="s">
         <v>5</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,40 +1025,43 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-100</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-200</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>5</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>5</v>
@@ -1052,14 +1072,17 @@
       <c r="P14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,41 +1151,42 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="E17" s="3">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="F17" s="3">
         <v>300</v>
       </c>
       <c r="G17" s="3">
+        <v>300</v>
+      </c>
+      <c r="H17" s="3">
         <v>200</v>
       </c>
-      <c r="H17" s="3">
-        <v>600</v>
-      </c>
       <c r="I17" s="3">
+        <v>700</v>
+      </c>
+      <c r="J17" s="3">
         <v>300</v>
-      </c>
-      <c r="J17" s="3">
-        <v>200</v>
       </c>
       <c r="K17" s="3">
         <v>200</v>
       </c>
       <c r="L17" s="3">
+        <v>200</v>
+      </c>
+      <c r="M17" s="3">
         <v>400</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
       <c r="N17" s="3">
         <v>0</v>
       </c>
@@ -1175,41 +1202,44 @@
       <c r="R17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>5</v>
+      <c r="D18" s="3">
+        <v>-600</v>
       </c>
       <c r="E18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
-        <v>-600</v>
-      </c>
       <c r="I18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J18" s="3">
         <v>-300</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-200</v>
       </c>
       <c r="K18" s="3">
         <v>-200</v>
       </c>
       <c r="L18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M18" s="3">
         <v>-400</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
         <v>0</v>
       </c>
@@ -1225,8 +1255,11 @@
       <c r="R18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,29 +1278,30 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>5</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
-        <v>100</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1295,35 +1329,38 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>5</v>
+      <c r="D21" s="3">
+        <v>-500</v>
       </c>
       <c r="E21" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F21" s="3">
         <v>-300</v>
       </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
       <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K21" s="3">
         <v>-100</v>
       </c>
-      <c r="H21" s="3">
-        <v>-400</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>5</v>
       </c>
@@ -1345,8 +1382,11 @@
       <c r="R21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1363,11 +1403,11 @@
         <v>0</v>
       </c>
       <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
@@ -1375,11 +1415,11 @@
         <v>0</v>
       </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>100</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N22" s="3" t="s">
         <v>5</v>
       </c>
@@ -1395,41 +1435,44 @@
       <c r="R22" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F23" s="3">
         <v>-400</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-400</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-100</v>
       </c>
       <c r="G23" s="3">
         <v>-100</v>
       </c>
       <c r="H23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I23" s="3">
         <v>-500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-300</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-200</v>
       </c>
       <c r="K23" s="3">
         <v>-200</v>
       </c>
       <c r="L23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M23" s="3">
         <v>-500</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
         <v>0</v>
       </c>
@@ -1445,8 +1488,11 @@
       <c r="R23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,41 +1594,44 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-400</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-400</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-100</v>
       </c>
       <c r="G26" s="3">
         <v>-100</v>
       </c>
       <c r="H26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I26" s="3">
         <v>-500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-300</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-200</v>
       </c>
       <c r="K26" s="3">
         <v>-200</v>
       </c>
       <c r="L26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M26" s="3">
         <v>-500</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
         <v>0</v>
       </c>
@@ -1595,41 +1647,44 @@
       <c r="R26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-400</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-400</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-100</v>
       </c>
       <c r="G27" s="3">
         <v>-100</v>
       </c>
       <c r="H27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I27" s="3">
         <v>-500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-300</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-200</v>
       </c>
       <c r="K27" s="3">
         <v>-200</v>
       </c>
       <c r="L27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M27" s="3">
         <v>-500</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
         <v>0</v>
       </c>
@@ -1645,8 +1700,11 @@
       <c r="R27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1713,40 +1774,43 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>3800</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>300</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>1100</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>100</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>200</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,29 +1912,32 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>5</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>200</v>
+      </c>
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
-        <v>-100</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -1895,41 +1965,44 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-400</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-400</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-100</v>
       </c>
       <c r="G33" s="3">
         <v>-100</v>
       </c>
       <c r="H33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I33" s="3">
         <v>3300</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-300</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
         <v>0</v>
       </c>
@@ -1945,8 +2018,11 @@
       <c r="R33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,41 +2071,44 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-400</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-400</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-100</v>
       </c>
       <c r="G35" s="3">
         <v>-100</v>
       </c>
       <c r="H35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I35" s="3">
         <v>3300</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-300</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
         <v>0</v>
       </c>
@@ -2045,63 +2124,69 @@
       <c r="R35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42551</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42460</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42369</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42277</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42185</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42094</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,8 +2226,9 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2149,13 +2236,13 @@
         <v>100</v>
       </c>
       <c r="E41" s="3">
+        <v>100</v>
+      </c>
+      <c r="F41" s="3">
         <v>400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>300</v>
-      </c>
-      <c r="G41" s="3">
-        <v>100</v>
       </c>
       <c r="H41" s="3">
         <v>100</v>
@@ -2169,11 +2256,11 @@
       <c r="K41" s="3">
         <v>100</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M41" s="3">
-        <v>0</v>
+      <c r="L41" s="3">
+        <v>100</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>
@@ -2190,29 +2277,32 @@
       <c r="R41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
         <v>400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>800</v>
       </c>
-      <c r="F42" s="3">
-        <v>1600</v>
-      </c>
       <c r="G42" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H42" s="3">
         <v>3100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>3900</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>5</v>
       </c>
@@ -2225,8 +2315,8 @@
       <c r="M42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
+      <c r="N42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
@@ -2240,19 +2330,22 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>5</v>
+      <c r="D43" s="3">
+        <v>0</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
+      <c r="F43" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
@@ -2261,17 +2354,17 @@
         <v>0</v>
       </c>
       <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
         <v>200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>100</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>5</v>
       </c>
@@ -2290,13 +2383,16 @@
       <c r="R43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>5</v>
+      <c r="D44" s="3">
+        <v>200</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>5</v>
@@ -2305,23 +2401,23 @@
         <v>5</v>
       </c>
       <c r="G44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H44" s="3">
         <v>0</v>
       </c>
       <c r="I44" s="3">
+        <v>0</v>
+      </c>
+      <c r="J44" s="3">
         <v>200</v>
       </c>
-      <c r="J44" s="3">
-        <v>0</v>
-      </c>
       <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3">
         <v>100</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M44" s="3" t="s">
         <v>5</v>
       </c>
@@ -2340,13 +2436,16 @@
       <c r="R44" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
         <v>200</v>
@@ -2355,23 +2454,23 @@
         <v>200</v>
       </c>
       <c r="G45" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="H45" s="3">
         <v>500</v>
       </c>
       <c r="I45" s="3">
+        <v>500</v>
+      </c>
+      <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
       <c r="M45" s="3">
         <v>0</v>
       </c>
@@ -2390,38 +2489,41 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>400</v>
+      </c>
+      <c r="E46" s="3">
         <v>700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1400</v>
       </c>
-      <c r="F46" s="3">
-        <v>2100</v>
-      </c>
       <c r="G46" s="3">
+        <v>2200</v>
+      </c>
+      <c r="H46" s="3">
         <v>3700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>600</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
       <c r="M46" s="3">
         <v>0</v>
       </c>
@@ -2432,16 +2534,19 @@
         <v>0</v>
       </c>
       <c r="P46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q46" s="3">
         <v>100</v>
       </c>
       <c r="R46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,13 +2595,16 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>900</v>
+        <v>2000</v>
       </c>
       <c r="E48" s="3">
         <v>900</v>
@@ -2505,23 +2613,23 @@
         <v>900</v>
       </c>
       <c r="G48" s="3">
-        <v>800</v>
+        <v>1800</v>
       </c>
       <c r="H48" s="3">
         <v>800</v>
       </c>
       <c r="I48" s="3">
+        <v>800</v>
+      </c>
+      <c r="J48" s="3">
         <v>1500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1100</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>5</v>
       </c>
@@ -2540,8 +2648,11 @@
       <c r="R48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,38 +2913,41 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E54" s="3">
         <v>1600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2300</v>
       </c>
-      <c r="F54" s="3">
-        <v>3000</v>
-      </c>
       <c r="G54" s="3">
+        <v>4000</v>
+      </c>
+      <c r="H54" s="3">
         <v>4500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1600</v>
       </c>
-      <c r="L54" s="3">
-        <v>0</v>
-      </c>
       <c r="M54" s="3">
         <v>0</v>
       </c>
@@ -2832,16 +2958,19 @@
         <v>0</v>
       </c>
       <c r="P54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q54" s="3">
         <v>100</v>
       </c>
       <c r="R54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,13 +3010,14 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E57" s="3">
         <v>0</v>
@@ -2895,25 +3026,25 @@
         <v>0</v>
       </c>
       <c r="G57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H57" s="3">
         <v>0</v>
       </c>
       <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3">
         <v>300</v>
       </c>
-      <c r="J57" s="3">
-        <v>0</v>
-      </c>
       <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3">
         <v>300</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M57" s="3">
-        <v>100</v>
+      <c r="M57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N57" s="3">
         <v>100</v>
@@ -2925,43 +3056,46 @@
         <v>100</v>
       </c>
       <c r="Q57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E58" s="3">
         <v>100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>200</v>
-      </c>
-      <c r="F58" s="3">
-        <v>500</v>
       </c>
       <c r="G58" s="3">
         <v>1600</v>
       </c>
       <c r="H58" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I58" s="3">
         <v>2000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3200</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>5</v>
       </c>
@@ -2980,46 +3114,49 @@
       <c r="R58" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>100</v>
+      </c>
+      <c r="E59" s="3">
         <v>300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
+        <v>700</v>
+      </c>
+      <c r="H59" s="3">
+        <v>900</v>
+      </c>
+      <c r="I59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J59" s="3">
         <v>600</v>
       </c>
-      <c r="G59" s="3">
-        <v>900</v>
-      </c>
-      <c r="H59" s="3">
-        <v>1400</v>
-      </c>
-      <c r="I59" s="3">
-        <v>600</v>
-      </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>100</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
-      </c>
       <c r="N59" s="3">
         <v>0</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>5</v>
+      <c r="O59" s="3">
+        <v>0</v>
       </c>
       <c r="P59" s="3" t="s">
         <v>5</v>
@@ -3030,37 +3167,40 @@
       <c r="R59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E60" s="3">
         <v>500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>800</v>
       </c>
-      <c r="F60" s="3">
-        <v>1100</v>
-      </c>
       <c r="G60" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H60" s="3">
         <v>2600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4000</v>
-      </c>
-      <c r="L60" s="3">
-        <v>100</v>
       </c>
       <c r="M60" s="3">
         <v>100</v>
@@ -3075,18 +3215,21 @@
         <v>100</v>
       </c>
       <c r="Q60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>300</v>
+        <v>6000</v>
       </c>
       <c r="E61" s="3">
         <v>300</v>
@@ -3098,20 +3241,20 @@
         <v>300</v>
       </c>
       <c r="H61" s="3">
+        <v>300</v>
+      </c>
+      <c r="I61" s="3">
         <v>100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>900</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -3130,8 +3273,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,37 +3485,40 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E66" s="3">
         <v>800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1100</v>
-      </c>
-      <c r="F66" s="3">
-        <v>1500</v>
       </c>
       <c r="G66" s="3">
         <v>2800</v>
       </c>
       <c r="H66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="I66" s="3">
         <v>3500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4900</v>
-      </c>
-      <c r="L66" s="3">
-        <v>100</v>
       </c>
       <c r="M66" s="3">
         <v>100</v>
@@ -3375,13 +3533,16 @@
         <v>100</v>
       </c>
       <c r="Q66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,37 +3771,40 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-24900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-17000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-16600</v>
       </c>
-      <c r="F72" s="3">
-        <v>-16300</v>
-      </c>
       <c r="G72" s="3">
+        <v>-16500</v>
+      </c>
+      <c r="H72" s="3">
         <v>-16200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-16000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-19500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-19300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-20200</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-100</v>
       </c>
       <c r="M72" s="3">
         <v>-100</v>
@@ -3642,7 +3816,7 @@
         <v>-100</v>
       </c>
       <c r="P72" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q72" s="3">
         <v>0</v>
@@ -3650,8 +3824,11 @@
       <c r="R72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,41 +3983,44 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E76" s="3">
         <v>800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1200</v>
       </c>
-      <c r="F76" s="3">
-        <v>1500</v>
-      </c>
       <c r="G76" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H76" s="3">
         <v>1600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1800</v>
-      </c>
-      <c r="I76" s="3">
-        <v>-1900</v>
       </c>
       <c r="J76" s="3">
         <v>-1900</v>
       </c>
       <c r="K76" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="L76" s="3">
         <v>-3300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-100</v>
       </c>
-      <c r="M76" s="3">
-        <v>0</v>
-      </c>
       <c r="N76" s="3">
         <v>0</v>
       </c>
@@ -3850,8 +4036,11 @@
       <c r="R76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,96 +4089,102 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42551</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42460</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42369</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42277</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42185</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42094</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-400</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-400</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-100</v>
       </c>
       <c r="G81" s="3">
         <v>-100</v>
       </c>
       <c r="H81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I81" s="3">
         <v>3300</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-300</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
         <v>0</v>
       </c>
@@ -4005,8 +4200,11 @@
       <c r="R81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,13 +4223,14 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -4051,8 +4250,8 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>5</v>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>5</v>
@@ -4069,14 +4268,17 @@
       <c r="P83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
+      <c r="Q83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,40 +4539,43 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-500</v>
+        <v>-700</v>
       </c>
       <c r="E89" s="3">
-        <v>-300</v>
+        <v>-700</v>
       </c>
       <c r="F89" s="3">
         <v>-300</v>
       </c>
       <c r="G89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H89" s="3">
         <v>-500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>3800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>800</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
+      <c r="M89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N89" s="3">
         <v>0</v>
@@ -4375,8 +4592,11 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,35 +4615,36 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-500</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>5</v>
       </c>
@@ -4439,14 +4660,17 @@
       <c r="P91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,35 +4772,38 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F94" s="3">
         <v>700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>1500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-500</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>5</v>
       </c>
@@ -4589,14 +4819,17 @@
       <c r="P94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="Q94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,35 +5058,38 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>600</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G100" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="H100" s="3">
+        <v>200</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
-        <v>-300</v>
-      </c>
-      <c r="F100" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H100" s="3">
+      <c r="K100" s="3">
         <v>-400</v>
       </c>
-      <c r="I100" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-400</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>5</v>
       </c>
@@ -4859,14 +5105,17 @@
       <c r="P100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
+      <c r="Q100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,23 +5164,26 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>200</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
@@ -4941,14 +5193,14 @@
       <c r="J102" s="3">
         <v>0</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>5</v>
+      <c r="K102" s="3">
+        <v>0</v>
       </c>
       <c r="L102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
+      <c r="M102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N102" s="3">
         <v>0</v>
@@ -4963,6 +5215,9 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/USLG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/USLG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="92">
   <si>
     <t>USLG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,103 +665,110 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42551</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42460</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42369</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42277</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42185</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42094</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>400</v>
+      </c>
+      <c r="F8" s="3">
         <v>500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>100</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
       <c r="I8" s="3">
         <v>0</v>
       </c>
@@ -795,26 +802,32 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>700</v>
+      </c>
+      <c r="E9" s="3">
         <v>500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
+        <v>500</v>
+      </c>
+      <c r="G9" s="3">
         <v>200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>100</v>
       </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I9" s="3">
         <v>0</v>
       </c>
@@ -824,37 +837,43 @@
       <c r="K9" s="3">
         <v>0</v>
       </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>5</v>
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P9" s="3">
+      <c r="P9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="3">
         <v>100</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E10" s="3">
         <v>-100</v>
@@ -863,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>5</v>
+        <v>-100</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
       </c>
       <c r="I10" s="3">
         <v>0</v>
@@ -877,32 +896,38 @@
       <c r="K10" s="3">
         <v>0</v>
       </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>5</v>
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="3">
         <v>-100</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,47 +947,49 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="3">
         <v>100</v>
       </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3">
-        <v>0</v>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J12" s="3">
         <v>0</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>5</v>
+      <c r="K12" s="3">
+        <v>0</v>
       </c>
       <c r="L12" s="3">
         <v>0</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
         <v>100</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P12" s="3" t="s">
         <v>5</v>
       </c>
@@ -975,8 +1002,14 @@
       <c r="S12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,46 +1061,52 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>5</v>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-100</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-200</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>5</v>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>5</v>
@@ -1075,14 +1114,20 @@
       <c r="Q14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1179,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,47 +1203,49 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3">
+        <v>800</v>
+      </c>
+      <c r="F17" s="3">
         <v>1100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>400</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
       <c r="P17" s="3">
         <v>0</v>
       </c>
@@ -1205,47 +1258,53 @@
       <c r="S17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-800</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-300</v>
       </c>
       <c r="H18" s="3">
         <v>-200</v>
       </c>
       <c r="I18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-400</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
       <c r="P18" s="3">
         <v>0</v>
       </c>
@@ -1258,8 +1317,14 @@
       <c r="S18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,35 +1344,37 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1332,41 +1399,47 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-300</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-200</v>
-      </c>
       <c r="I21" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="J21" s="3">
         <v>-200</v>
       </c>
       <c r="K21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M21" s="3">
         <v>-100</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>5</v>
       </c>
@@ -1385,8 +1458,14 @@
       <c r="S21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1394,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1406,26 +1485,26 @@
         <v>0</v>
       </c>
       <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
       <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>100</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P22" s="3" t="s">
         <v>5</v>
       </c>
@@ -1438,47 +1517,53 @@
       <c r="S22" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F23" s="3">
         <v>-700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-1000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-500</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
         <v>0</v>
       </c>
@@ -1491,8 +1576,14 @@
       <c r="S23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1635,14 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,47 +1694,53 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-1000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-500</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
         <v>0</v>
       </c>
@@ -1650,47 +1753,53 @@
       <c r="S26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-1000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-500</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
         <v>0</v>
       </c>
@@ -1703,8 +1812,14 @@
       <c r="S27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,13 +1871,19 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -1777,40 +1898,46 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>3800</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>300</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>1100</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>100</v>
       </c>
-      <c r="M29" s="3">
+      <c r="O29" s="3">
         <v>200</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1989,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,35 +2048,41 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -1968,47 +2107,53 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-1000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>3300</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-300</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
         <v>0</v>
       </c>
@@ -2021,8 +2166,14 @@
       <c r="S33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,47 +2225,53 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-1000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>3300</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-300</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
         <v>0</v>
       </c>
@@ -2127,66 +2284,78 @@
       <c r="S35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42551</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42460</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42369</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42277</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42185</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42094</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2375,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,28 +2398,30 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
         <v>100</v>
       </c>
       <c r="F41" s="3">
+        <v>100</v>
+      </c>
+      <c r="G41" s="3">
+        <v>100</v>
+      </c>
+      <c r="H41" s="3">
         <v>400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>300</v>
-      </c>
-      <c r="H41" s="3">
-        <v>100</v>
-      </c>
-      <c r="I41" s="3">
-        <v>100</v>
       </c>
       <c r="J41" s="3">
         <v>100</v>
@@ -2259,14 +2432,14 @@
       <c r="L41" s="3">
         <v>100</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>5</v>
+      <c r="M41" s="3">
+        <v>100</v>
       </c>
       <c r="N41" s="3">
-        <v>0</v>
-      </c>
-      <c r="O41" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P41" s="3">
         <v>0</v>
@@ -2280,35 +2453,41 @@
       <c r="S41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>0</v>
+      <c r="D42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
         <v>400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>1700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>3100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>3900</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>5</v>
       </c>
@@ -2318,11 +2497,11 @@
       <c r="N42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
-      </c>
-      <c r="P42" s="3">
-        <v>0</v>
+      <c r="O42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q42" s="3">
         <v>0</v>
@@ -2333,44 +2512,50 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I43" s="3">
         <v>0</v>
       </c>
       <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
         <v>200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>100</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>5</v>
       </c>
@@ -2386,44 +2571,50 @@
       <c r="S43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
         <v>200</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G44" s="3">
+      <c r="E44" s="3">
+        <v>200</v>
+      </c>
+      <c r="F44" s="3">
+        <v>200</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I44" s="3">
         <v>100</v>
       </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
       <c r="J44" s="3">
+        <v>0</v>
+      </c>
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3">
         <v>200</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
-      </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
         <v>100</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N44" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O44" s="3" t="s">
         <v>5</v>
       </c>
@@ -2439,8 +2630,14 @@
       <c r="S44" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2448,35 +2645,35 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
         <v>200</v>
       </c>
       <c r="H45" s="3">
+        <v>200</v>
+      </c>
+      <c r="I45" s="3">
+        <v>200</v>
+      </c>
+      <c r="J45" s="3">
         <v>500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>200</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
       <c r="O45" s="3">
         <v>0</v>
       </c>
@@ -2492,43 +2689,49 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>500</v>
+      </c>
+      <c r="E46" s="3">
         <v>400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
+        <v>400</v>
+      </c>
+      <c r="G46" s="3">
         <v>700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>2200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>3700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>4500</v>
-      </c>
-      <c r="J46" s="3">
-        <v>600</v>
-      </c>
-      <c r="K46" s="3">
-        <v>1600</v>
       </c>
       <c r="L46" s="3">
         <v>600</v>
       </c>
       <c r="M46" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="N46" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="O46" s="3">
         <v>0</v>
@@ -2537,16 +2740,22 @@
         <v>0</v>
       </c>
       <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
         <v>100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>100</v>
       </c>
-      <c r="S46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,44 +2807,50 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F48" s="3">
         <v>2000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1100</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>5</v>
       </c>
@@ -2651,8 +2866,14 @@
       <c r="S48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2925,14 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2984,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +3043,14 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2863,8 +3102,14 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,44 +3161,50 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2300</v>
+        <v>2900</v>
       </c>
       <c r="E54" s="3">
-        <v>1600</v>
+        <v>2700</v>
       </c>
       <c r="F54" s="3">
         <v>2300</v>
       </c>
       <c r="G54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H54" s="3">
+        <v>2300</v>
+      </c>
+      <c r="I54" s="3">
         <v>4000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>4500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>5300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1600</v>
       </c>
-      <c r="M54" s="3">
-        <v>0</v>
-      </c>
-      <c r="N54" s="3">
-        <v>0</v>
-      </c>
       <c r="O54" s="3">
         <v>0</v>
       </c>
@@ -2961,16 +3212,22 @@
         <v>0</v>
       </c>
       <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+      <c r="S54" s="3">
         <v>100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>100</v>
       </c>
-      <c r="S54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3247,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,31 +3270,33 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>700</v>
+      </c>
+      <c r="E57" s="3">
+        <v>600</v>
+      </c>
+      <c r="F57" s="3">
         <v>300</v>
       </c>
-      <c r="E57" s="3">
-        <v>0</v>
-      </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
       <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
         <v>100</v>
       </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
       <c r="J57" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
@@ -3043,14 +3304,14 @@
       <c r="L57" s="3">
         <v>300</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>5</v>
+      <c r="M57" s="3">
+        <v>0</v>
       </c>
       <c r="N57" s="3">
-        <v>100</v>
-      </c>
-      <c r="O57" s="3">
-        <v>100</v>
+        <v>300</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P57" s="3">
         <v>100</v>
@@ -3059,49 +3320,55 @@
         <v>100</v>
       </c>
       <c r="R57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>500</v>
+      </c>
+      <c r="E58" s="3">
+        <v>300</v>
+      </c>
+      <c r="F58" s="3">
         <v>1300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>1600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>1600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>2000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>2500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>2800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>3200</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>5</v>
       </c>
@@ -3117,52 +3384,58 @@
       <c r="S58" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>200</v>
+      </c>
+      <c r="F59" s="3">
         <v>100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>100</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
-      </c>
-      <c r="O59" s="3">
-        <v>0</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q59" s="3" t="s">
-        <v>5</v>
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>0</v>
       </c>
       <c r="R59" s="3" t="s">
         <v>5</v>
@@ -3170,43 +3443,49 @@
       <c r="S59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F60" s="3">
         <v>1800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>2400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>3400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>3500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>3800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>4000</v>
-      </c>
-      <c r="M60" s="3">
-        <v>100</v>
-      </c>
-      <c r="N60" s="3">
-        <v>100</v>
       </c>
       <c r="O60" s="3">
         <v>100</v>
@@ -3218,24 +3497,30 @@
         <v>100</v>
       </c>
       <c r="R60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S60" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E61" s="3">
+        <v>7300</v>
+      </c>
+      <c r="F61" s="3">
         <v>6000</v>
-      </c>
-      <c r="E61" s="3">
-        <v>300</v>
-      </c>
-      <c r="F61" s="3">
-        <v>300</v>
       </c>
       <c r="G61" s="3">
         <v>300</v>
@@ -3244,23 +3529,23 @@
         <v>300</v>
       </c>
       <c r="I61" s="3">
+        <v>300</v>
+      </c>
+      <c r="J61" s="3">
+        <v>300</v>
+      </c>
+      <c r="K61" s="3">
         <v>100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>900</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3276,8 +3561,14 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3329,8 +3620,14 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3679,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3738,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,43 +3797,49 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>8500</v>
+      </c>
+      <c r="F66" s="3">
         <v>7800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>3500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>4000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>4200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>4900</v>
-      </c>
-      <c r="M66" s="3">
-        <v>100</v>
-      </c>
-      <c r="N66" s="3">
-        <v>100</v>
       </c>
       <c r="O66" s="3">
         <v>100</v>
@@ -3536,13 +3851,19 @@
         <v>100</v>
       </c>
       <c r="R66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T66" s="3">
+        <v>0</v>
+      </c>
+      <c r="U66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3883,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3938,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3997,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +4056,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,43 +4115,49 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-25500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-25500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-24900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-17000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-16600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-16500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-16200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-16000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-19500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-19300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-20200</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-100</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-100</v>
       </c>
       <c r="O72" s="3">
         <v>-100</v>
@@ -3819,16 +4166,22 @@
         <v>-100</v>
       </c>
       <c r="Q72" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R72" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3">
+        <v>0</v>
+      </c>
+      <c r="U72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4233,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4292,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,47 +4351,53 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="F76" s="3">
         <v>-5400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>1800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-1900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-1900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-3300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-100</v>
       </c>
-      <c r="N76" s="3">
-        <v>0</v>
-      </c>
-      <c r="O76" s="3">
-        <v>0</v>
-      </c>
       <c r="P76" s="3">
         <v>0</v>
       </c>
@@ -4039,8 +4410,14 @@
       <c r="S76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3">
+        <v>0</v>
+      </c>
+      <c r="U76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,105 +4469,117 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42551</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42460</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42369</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42277</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42185</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42094</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-1000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>3300</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-300</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
         <v>0</v>
       </c>
@@ -4203,8 +4592,14 @@
       <c r="S81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,20 +4619,22 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F83" s="3">
         <v>100</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
       <c r="G83" s="3">
         <v>0</v>
       </c>
@@ -4253,11 +4650,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>5</v>
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>5</v>
@@ -4271,14 +4668,20 @@
       <c r="Q83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
-      </c>
-      <c r="S83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4733,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4792,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4851,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4910,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,46 +4969,52 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>3800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>800</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
-      <c r="O89" s="3">
-        <v>0</v>
+      <c r="N89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P89" s="3">
         <v>0</v>
@@ -4595,8 +5028,14 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,41 +5055,43 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>100</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-500</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>5</v>
       </c>
@@ -4663,14 +5104,20 @@
       <c r="Q91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +5169,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,41 +5228,47 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>1000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>1500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-3500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-500</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>5</v>
       </c>
@@ -4822,14 +5281,20 @@
       <c r="Q94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5314,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5369,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5428,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5487,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,40 +5546,46 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>400</v>
+      </c>
+      <c r="F100" s="3">
         <v>600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-1600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-400</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-100</v>
       </c>
       <c r="K100" s="3">
         <v>-400</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>5</v>
+      <c r="L100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M100" s="3">
+        <v>-400</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>5</v>
@@ -5108,14 +5599,20 @@
       <c r="Q100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,8 +5664,14 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5176,37 +5679,37 @@
         <v>-100</v>
       </c>
       <c r="E102" s="3">
+        <v>100</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>200</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3">
-        <v>0</v>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P102" s="3">
         <v>0</v>
@@ -5218,6 +5721,12 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/USLG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/USLG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="92">
   <si>
     <t>USLG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,112 +665,116 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42551</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42460</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42369</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42277</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42185</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42094</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E8" s="3">
         <v>1200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>500</v>
-      </c>
-      <c r="G8" s="3">
-        <v>100</v>
       </c>
       <c r="H8" s="3">
         <v>100</v>
       </c>
       <c r="I8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J8" s="3">
         <v>0</v>
@@ -808,46 +812,49 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>800</v>
+      </c>
+      <c r="E9" s="3">
         <v>700</v>
-      </c>
-      <c r="E9" s="3">
-        <v>500</v>
       </c>
       <c r="F9" s="3">
         <v>500</v>
       </c>
       <c r="G9" s="3">
+        <v>500</v>
+      </c>
+      <c r="H9" s="3">
         <v>200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>100</v>
       </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9" s="3">
-        <v>0</v>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N9" s="3">
         <v>0</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>5</v>
+      <c r="O9" s="3">
+        <v>0</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>5</v>
@@ -855,20 +862,23 @@
       <c r="Q9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R9" s="3">
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S9" s="3">
         <v>100</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -876,37 +886,37 @@
         <v>500</v>
       </c>
       <c r="E10" s="3">
+        <v>500</v>
+      </c>
+      <c r="F10" s="3">
         <v>-100</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
       <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
         <v>-100</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
       <c r="I10" s="3">
         <v>0</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M10" s="3">
-        <v>0</v>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N10" s="3">
         <v>0</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>5</v>
+      <c r="O10" s="3">
+        <v>0</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>5</v>
@@ -914,20 +924,23 @@
       <c r="Q10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R10" s="3">
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S10" s="3">
         <v>-100</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -960,20 +974,20 @@
       <c r="E12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="3">
         <v>100</v>
       </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>5</v>
+      <c r="H12" s="3">
+        <v>0</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J12" s="3">
-        <v>0</v>
+      <c r="J12" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K12" s="3">
         <v>0</v>
@@ -981,18 +995,18 @@
       <c r="L12" s="3">
         <v>0</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N12" s="3">
-        <v>0</v>
+      <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O12" s="3">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3">
         <v>100</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q12" s="3" t="s">
         <v>5</v>
       </c>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,16 +1084,19 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1084,32 +1104,32 @@
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-100</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>-200</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>5</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>5</v>
@@ -1120,14 +1140,17 @@
       <c r="S14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,8 +1231,9 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1214,41 +1241,41 @@
         <v>5</v>
       </c>
       <c r="E17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F17" s="3">
         <v>800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>900</v>
-      </c>
-      <c r="H17" s="3">
-        <v>300</v>
       </c>
       <c r="I17" s="3">
         <v>300</v>
       </c>
       <c r="J17" s="3">
+        <v>300</v>
+      </c>
+      <c r="K17" s="3">
         <v>200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>300</v>
-      </c>
-      <c r="M17" s="3">
-        <v>200</v>
       </c>
       <c r="N17" s="3">
         <v>200</v>
       </c>
       <c r="O17" s="3">
+        <v>200</v>
+      </c>
+      <c r="P17" s="3">
         <v>400</v>
       </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
       <c r="Q17" s="3">
         <v>0</v>
       </c>
@@ -1264,8 +1291,11 @@
       <c r="U17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1273,41 +1303,41 @@
         <v>5</v>
       </c>
       <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-300</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-200</v>
       </c>
       <c r="N18" s="3">
         <v>-200</v>
       </c>
       <c r="O18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P18" s="3">
         <v>-400</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
       <c r="Q18" s="3">
         <v>0</v>
       </c>
@@ -1323,8 +1353,11 @@
       <c r="U18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,8 +1379,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1361,23 +1395,23 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1405,8 +1439,11 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1414,35 +1451,35 @@
         <v>5</v>
       </c>
       <c r="E21" s="3">
+        <v>100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-300</v>
       </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
       <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
         <v>-200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-100</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>5</v>
       </c>
@@ -1464,8 +1501,11 @@
       <c r="U21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1473,11 +1513,11 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
         <v>100</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
       <c r="G22" s="3">
         <v>0</v>
       </c>
@@ -1491,11 +1531,11 @@
         <v>0</v>
       </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
@@ -1503,11 +1543,11 @@
         <v>0</v>
       </c>
       <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
         <v>100</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q22" s="3" t="s">
         <v>5</v>
       </c>
@@ -1523,8 +1563,11 @@
       <c r="U22" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1532,41 +1575,41 @@
         <v>5</v>
       </c>
       <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>-500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-300</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-200</v>
       </c>
       <c r="N23" s="3">
         <v>-200</v>
       </c>
       <c r="O23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P23" s="3">
         <v>-500</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
       <c r="Q23" s="3">
         <v>0</v>
       </c>
@@ -1582,8 +1625,11 @@
       <c r="U23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1641,8 +1687,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,8 +1749,11 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1709,41 +1761,41 @@
         <v>5</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>-500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-300</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-200</v>
       </c>
       <c r="N26" s="3">
         <v>-200</v>
       </c>
       <c r="O26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P26" s="3">
         <v>-500</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
       <c r="Q26" s="3">
         <v>0</v>
       </c>
@@ -1759,8 +1811,11 @@
       <c r="U26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1768,41 +1823,41 @@
         <v>5</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>-7300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-300</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-200</v>
       </c>
       <c r="N27" s="3">
         <v>-200</v>
       </c>
       <c r="O27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P27" s="3">
         <v>-500</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
       <c r="Q27" s="3">
         <v>0</v>
       </c>
@@ -1818,8 +1873,11 @@
       <c r="U27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,16 +1935,19 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -1904,40 +1965,43 @@
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>3800</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>300</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>1100</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>100</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>200</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
+      <c r="T29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,8 +2121,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2069,23 +2139,23 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -2113,8 +2183,11 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2122,41 +2195,41 @@
         <v>5</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>-7300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3300</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
       <c r="Q33" s="3">
         <v>0</v>
       </c>
@@ -2172,8 +2245,11 @@
       <c r="U33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,8 +2307,11 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2240,41 +2319,41 @@
         <v>5</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>-7300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3300</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
       <c r="Q35" s="3">
         <v>0</v>
       </c>
@@ -2290,72 +2369,78 @@
       <c r="U35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42551</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42460</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42369</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42277</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42185</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42094</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,8 +2486,9 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2409,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
         <v>100</v>
@@ -2418,13 +2505,13 @@
         <v>100</v>
       </c>
       <c r="H41" s="3">
+        <v>100</v>
+      </c>
+      <c r="I41" s="3">
         <v>400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>300</v>
-      </c>
-      <c r="J41" s="3">
-        <v>100</v>
       </c>
       <c r="K41" s="3">
         <v>100</v>
@@ -2438,11 +2525,11 @@
       <c r="N41" s="3">
         <v>100</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P41" s="3">
-        <v>0</v>
+      <c r="O41" s="3">
+        <v>100</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q41" s="3">
         <v>0</v>
@@ -2459,38 +2546,41 @@
       <c r="U41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E42" s="3">
-        <v>0</v>
+      <c r="E42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
       </c>
       <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
         <v>400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>3100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>3900</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M42" s="3" t="s">
         <v>5</v>
       </c>
@@ -2503,8 +2593,8 @@
       <c r="P42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q42" s="3">
-        <v>0</v>
+      <c r="Q42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R42" s="3">
         <v>0</v>
@@ -2518,28 +2608,31 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>500</v>
+      </c>
+      <c r="E43" s="3">
         <v>200</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
       <c r="F43" s="3">
         <v>0</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>5</v>
+      <c r="G43" s="3">
+        <v>0</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I43" s="3">
-        <v>0</v>
+      <c r="I43" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
@@ -2548,17 +2641,17 @@
         <v>0</v>
       </c>
       <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
         <v>200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>100</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>5</v>
       </c>
@@ -2577,13 +2670,16 @@
       <c r="U43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E44" s="3">
         <v>200</v>
@@ -2591,33 +2687,33 @@
       <c r="F44" s="3">
         <v>200</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>5</v>
+      <c r="G44" s="3">
+        <v>200</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I44" s="3">
+      <c r="I44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J44" s="3">
         <v>100</v>
       </c>
-      <c r="J44" s="3">
-        <v>0</v>
-      </c>
       <c r="K44" s="3">
         <v>0</v>
       </c>
       <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
         <v>200</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
-      </c>
       <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
         <v>100</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P44" s="3" t="s">
         <v>5</v>
       </c>
@@ -2636,13 +2732,16 @@
       <c r="U44" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
@@ -2651,7 +2750,7 @@
         <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
         <v>200</v>
@@ -2660,23 +2759,23 @@
         <v>200</v>
       </c>
       <c r="J45" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K45" s="3">
         <v>500</v>
       </c>
       <c r="L45" s="3">
+        <v>500</v>
+      </c>
+      <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>200</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
       <c r="P45" s="3">
         <v>0</v>
       </c>
@@ -2695,47 +2794,50 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>600</v>
+      </c>
+      <c r="E46" s="3">
         <v>500</v>
-      </c>
-      <c r="E46" s="3">
-        <v>400</v>
       </c>
       <c r="F46" s="3">
         <v>400</v>
       </c>
       <c r="G46" s="3">
+        <v>400</v>
+      </c>
+      <c r="H46" s="3">
         <v>700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>600</v>
       </c>
-      <c r="O46" s="3">
-        <v>0</v>
-      </c>
       <c r="P46" s="3">
         <v>0</v>
       </c>
@@ -2746,16 +2848,19 @@
         <v>0</v>
       </c>
       <c r="S46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T46" s="3">
         <v>100</v>
       </c>
       <c r="U46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2813,47 +2918,50 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E48" s="3">
         <v>2400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2000</v>
-      </c>
-      <c r="G48" s="3">
-        <v>900</v>
       </c>
       <c r="H48" s="3">
         <v>900</v>
       </c>
       <c r="I48" s="3">
+        <v>900</v>
+      </c>
+      <c r="J48" s="3">
         <v>1800</v>
-      </c>
-      <c r="J48" s="3">
-        <v>800</v>
       </c>
       <c r="K48" s="3">
         <v>800</v>
       </c>
       <c r="L48" s="3">
+        <v>800</v>
+      </c>
+      <c r="M48" s="3">
         <v>1500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1100</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>5</v>
       </c>
@@ -2872,8 +2980,11 @@
       <c r="U48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2931,8 +3042,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,8 +3166,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3108,8 +3228,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,47 +3290,50 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E54" s="3">
         <v>2900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1600</v>
       </c>
-      <c r="O54" s="3">
-        <v>0</v>
-      </c>
       <c r="P54" s="3">
         <v>0</v>
       </c>
@@ -3218,16 +3344,19 @@
         <v>0</v>
       </c>
       <c r="S54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T54" s="3">
         <v>100</v>
       </c>
       <c r="U54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="V54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,8 +3402,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3281,40 +3412,40 @@
         <v>700</v>
       </c>
       <c r="E57" s="3">
+        <v>700</v>
+      </c>
+      <c r="F57" s="3">
         <v>600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>300</v>
       </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
       <c r="H57" s="3">
         <v>0</v>
       </c>
       <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3">
         <v>100</v>
       </c>
-      <c r="J57" s="3">
-        <v>0</v>
-      </c>
       <c r="K57" s="3">
         <v>0</v>
       </c>
       <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
         <v>300</v>
       </c>
-      <c r="M57" s="3">
-        <v>0</v>
-      </c>
       <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3">
         <v>300</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P57" s="3">
-        <v>100</v>
+      <c r="P57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q57" s="3">
         <v>100</v>
@@ -3326,52 +3457,55 @@
         <v>100</v>
       </c>
       <c r="T57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>400</v>
+      </c>
+      <c r="E58" s="3">
         <v>500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>200</v>
-      </c>
-      <c r="I58" s="3">
-        <v>1600</v>
       </c>
       <c r="J58" s="3">
         <v>1600</v>
       </c>
       <c r="K58" s="3">
+        <v>1600</v>
+      </c>
+      <c r="L58" s="3">
         <v>2000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3200</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>5</v>
       </c>
@@ -3390,8 +3524,11 @@
       <c r="U58" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3402,43 +3539,43 @@
         <v>200</v>
       </c>
       <c r="F59" s="3">
+        <v>200</v>
+      </c>
+      <c r="G59" s="3">
         <v>100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>100</v>
       </c>
-      <c r="P59" s="3">
-        <v>0</v>
-      </c>
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>5</v>
+      <c r="R59" s="3">
+        <v>0</v>
       </c>
       <c r="S59" s="3" t="s">
         <v>5</v>
@@ -3449,8 +3586,11 @@
       <c r="U59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3458,37 +3598,37 @@
         <v>1300</v>
       </c>
       <c r="E60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F60" s="3">
         <v>1200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4000</v>
-      </c>
-      <c r="O60" s="3">
-        <v>100</v>
       </c>
       <c r="P60" s="3">
         <v>100</v>
@@ -3503,27 +3643,30 @@
         <v>100</v>
       </c>
       <c r="T60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E61" s="3">
         <v>7200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6000</v>
-      </c>
-      <c r="G61" s="3">
-        <v>300</v>
       </c>
       <c r="H61" s="3">
         <v>300</v>
@@ -3535,20 +3678,20 @@
         <v>300</v>
       </c>
       <c r="K61" s="3">
+        <v>300</v>
+      </c>
+      <c r="L61" s="3">
         <v>100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>900</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3567,8 +3710,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3626,8 +3772,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,46 +3958,49 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>8500</v>
+        <v>8700</v>
       </c>
       <c r="E66" s="3">
         <v>8500</v>
       </c>
       <c r="F66" s="3">
+        <v>8500</v>
+      </c>
+      <c r="G66" s="3">
         <v>7800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1100</v>
-      </c>
-      <c r="I66" s="3">
-        <v>2800</v>
       </c>
       <c r="J66" s="3">
         <v>2800</v>
       </c>
       <c r="K66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="L66" s="3">
         <v>3500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4900</v>
-      </c>
-      <c r="O66" s="3">
-        <v>100</v>
       </c>
       <c r="P66" s="3">
         <v>100</v>
@@ -3857,13 +4015,16 @@
         <v>100</v>
       </c>
       <c r="T66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,46 +4292,49 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-25500</v>
+        <v>-25600</v>
       </c>
       <c r="E72" s="3">
         <v>-25500</v>
       </c>
       <c r="F72" s="3">
+        <v>-25500</v>
+      </c>
+      <c r="G72" s="3">
         <v>-24900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-17000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-16600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-16500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-16200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-16000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-19500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-19300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-20200</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-100</v>
       </c>
       <c r="P72" s="3">
         <v>-100</v>
@@ -4172,7 +4346,7 @@
         <v>-100</v>
       </c>
       <c r="S72" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T72" s="3">
         <v>0</v>
@@ -4180,8 +4354,11 @@
       <c r="U72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,8 +4540,11 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4366,41 +4552,41 @@
         <v>-5600</v>
       </c>
       <c r="E76" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="F76" s="3">
         <v>-5800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-5400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1800</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-1900</v>
       </c>
       <c r="M76" s="3">
         <v>-1900</v>
       </c>
       <c r="N76" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="O76" s="3">
         <v>-3300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-100</v>
       </c>
-      <c r="P76" s="3">
-        <v>0</v>
-      </c>
       <c r="Q76" s="3">
         <v>0</v>
       </c>
@@ -4416,8 +4602,11 @@
       <c r="U76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,72 +4664,78 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42551</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42460</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42369</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42277</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42185</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42094</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4548,41 +4743,41 @@
         <v>5</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>-7300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3300</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
       <c r="Q81" s="3">
         <v>0</v>
       </c>
@@ -4598,8 +4793,11 @@
       <c r="U81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4630,14 +4829,14 @@
         <v>0</v>
       </c>
       <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
         <v>-100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>100</v>
       </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
       <c r="H83" s="3">
         <v>0</v>
       </c>
@@ -4656,8 +4855,8 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>5</v>
+      <c r="N83" s="3">
+        <v>0</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>5</v>
@@ -4674,14 +4873,17 @@
       <c r="S83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T83" s="3">
-        <v>0</v>
+      <c r="T83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,49 +5189,52 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-100</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-700</v>
       </c>
       <c r="G89" s="3">
         <v>-700</v>
       </c>
       <c r="H89" s="3">
-        <v>-300</v>
+        <v>-700</v>
       </c>
       <c r="I89" s="3">
         <v>-300</v>
       </c>
       <c r="J89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K89" s="3">
         <v>-500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>800</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
+      <c r="P89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q89" s="3">
         <v>0</v>
@@ -5034,8 +5251,11 @@
       <c r="U89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,8 +5277,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5066,35 +5287,35 @@
         <v>-200</v>
       </c>
       <c r="E91" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="F91" s="3">
         <v>-300</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
       <c r="I91" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="J91" s="3">
         <v>-400</v>
       </c>
       <c r="K91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-500</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>5</v>
       </c>
@@ -5110,14 +5331,17 @@
       <c r="S91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
+      <c r="T91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,8 +5461,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5243,35 +5473,35 @@
         <v>-200</v>
       </c>
       <c r="E94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-300</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>1000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>1500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-500</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>5</v>
       </c>
@@ -5287,14 +5517,17 @@
       <c r="S94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
+      <c r="T94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,44 +5795,47 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
         <v>400</v>
       </c>
       <c r="F100" s="3">
+        <v>400</v>
+      </c>
+      <c r="G100" s="3">
         <v>600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-400</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>5</v>
       </c>
@@ -5605,14 +5851,17 @@
       <c r="S100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
+      <c r="T100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,32 +5919,35 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>200</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
@@ -5705,14 +5957,14 @@
       <c r="M102" s="3">
         <v>0</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>5</v>
+      <c r="N102" s="3">
+        <v>0</v>
       </c>
       <c r="O102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
+      <c r="P102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q102" s="3">
         <v>0</v>
@@ -5727,6 +5979,9 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/USLG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/USLG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="92">
   <si>
     <t>USLG</t>
   </si>
@@ -1237,8 +1237,8 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>5</v>
+      <c r="D17" s="3">
+        <v>1300</v>
       </c>
       <c r="E17" s="3">
         <v>1200</v>
@@ -1299,8 +1299,8 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>5</v>
+      <c r="D18" s="3">
+        <v>0</v>
       </c>
       <c r="E18" s="3">
         <v>0</v>
@@ -1385,8 +1385,8 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>5</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1447,8 +1447,8 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>5</v>
+      <c r="D21" s="3">
+        <v>0</v>
       </c>
       <c r="E21" s="3">
         <v>100</v>
@@ -1571,8 +1571,8 @@
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>5</v>
+      <c r="D23" s="3">
+        <v>0</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
@@ -1757,8 +1757,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>5</v>
+      <c r="D26" s="3">
+        <v>0</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -1819,8 +1819,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>5</v>
+      <c r="D27" s="3">
+        <v>0</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -2129,8 +2129,8 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>5</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2191,8 +2191,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>5</v>
+      <c r="D33" s="3">
+        <v>0</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -2315,8 +2315,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>5</v>
+      <c r="D35" s="3">
+        <v>0</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -4739,8 +4739,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>5</v>
+      <c r="D81" s="3">
+        <v>0</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
